--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hbegf-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H2">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I2">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J2">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>1764.267519272652</v>
+        <v>198.632329820152</v>
       </c>
       <c r="R2">
-        <v>15878.40767345387</v>
+        <v>1787.690968381368</v>
       </c>
       <c r="S2">
-        <v>0.1121515860270763</v>
+        <v>0.02081290787247226</v>
       </c>
       <c r="T2">
-        <v>0.1121515860270763</v>
+        <v>0.02081290787247226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H3">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I3">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J3">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>863.7542102771096</v>
+        <v>946.0303670846974</v>
       </c>
       <c r="R3">
-        <v>7773.787892493986</v>
+        <v>8514.273303762278</v>
       </c>
       <c r="S3">
-        <v>0.05490743527380668</v>
+        <v>0.09912607324559171</v>
       </c>
       <c r="T3">
-        <v>0.05490743527380668</v>
+        <v>0.09912607324559172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H4">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I4">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J4">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>425.754022510908</v>
+        <v>450.0796703217374</v>
       </c>
       <c r="R4">
-        <v>3831.786202598172</v>
+        <v>4050.717032895637</v>
       </c>
       <c r="S4">
-        <v>0.02706448333963048</v>
+        <v>0.04715982902763416</v>
       </c>
       <c r="T4">
-        <v>0.02706448333963048</v>
+        <v>0.04715982902763417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.379281</v>
+        <v>8.082188</v>
       </c>
       <c r="H5">
-        <v>22.137843</v>
+        <v>24.246564</v>
       </c>
       <c r="I5">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="J5">
-        <v>0.2744121884499961</v>
+        <v>0.2755301789948819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>1263.02910220123</v>
+        <v>1034.837397641507</v>
       </c>
       <c r="R5">
-        <v>11367.26191981107</v>
+        <v>9313.536578773561</v>
       </c>
       <c r="S5">
-        <v>0.08028868380948258</v>
+        <v>0.1084313688491837</v>
       </c>
       <c r="T5">
-        <v>0.08028868380948258</v>
+        <v>0.1084313688491838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>39.894172</v>
       </c>
       <c r="I6">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J6">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>3179.351839647454</v>
+        <v>326.8204241477627</v>
       </c>
       <c r="R6">
-        <v>28614.16655682708</v>
+        <v>2941.383817329864</v>
       </c>
       <c r="S6">
-        <v>0.2021061701014403</v>
+        <v>0.0342445934394895</v>
       </c>
       <c r="T6">
-        <v>0.2021061701014403</v>
+        <v>0.0342445934394895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>39.894172</v>
       </c>
       <c r="I7">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J7">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
         <v>1556.554494966794</v>
@@ -883,10 +883,10 @@
         <v>14008.99045470115</v>
       </c>
       <c r="S7">
-        <v>0.09894761051887985</v>
+        <v>0.163097444064414</v>
       </c>
       <c r="T7">
-        <v>0.09894761051887983</v>
+        <v>0.163097444064414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>39.894172</v>
       </c>
       <c r="I8">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J8">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>767.2429605604319</v>
+        <v>740.5402176373809</v>
       </c>
       <c r="R8">
-        <v>6905.186645043887</v>
+        <v>6664.861958736428</v>
       </c>
       <c r="S8">
-        <v>0.04877237377834655</v>
+        <v>0.07759459570102509</v>
       </c>
       <c r="T8">
-        <v>0.04877237377834654</v>
+        <v>0.07759459570102509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>39.894172</v>
       </c>
       <c r="I9">
-        <v>0.4945128143207339</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="J9">
-        <v>0.4945128143207338</v>
+        <v>0.4533445791334642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>2276.079934446253</v>
+        <v>1702.673464724431</v>
       </c>
       <c r="R9">
-        <v>20484.71941001627</v>
+        <v>15324.06118251988</v>
       </c>
       <c r="S9">
-        <v>0.1446866599220671</v>
+        <v>0.1784079459285356</v>
       </c>
       <c r="T9">
-        <v>0.1446866599220671</v>
+        <v>0.1784079459285356</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H10">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I10">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J10">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>1085.578765138358</v>
+        <v>142.2859020377073</v>
       </c>
       <c r="R10">
-        <v>9770.208886245216</v>
+        <v>1280.573118339366</v>
       </c>
       <c r="S10">
-        <v>0.06900845758231434</v>
+        <v>0.01490886893057009</v>
       </c>
       <c r="T10">
-        <v>0.06900845758231434</v>
+        <v>0.01490886893057009</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H11">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I11">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J11">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>531.4801858179947</v>
+        <v>677.6680526155375</v>
       </c>
       <c r="R11">
-        <v>4783.321672361952</v>
+        <v>6099.012473539838</v>
       </c>
       <c r="S11">
-        <v>0.03378532174419162</v>
+        <v>0.07100678303464139</v>
       </c>
       <c r="T11">
-        <v>0.03378532174419161</v>
+        <v>0.0710067830346414</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H12">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I12">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J12">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>261.972473539968</v>
+        <v>322.4046757068508</v>
       </c>
       <c r="R12">
-        <v>2357.752261859712</v>
+        <v>2901.642081361657</v>
       </c>
       <c r="S12">
-        <v>0.01665315950216912</v>
+        <v>0.03378190659706096</v>
       </c>
       <c r="T12">
-        <v>0.01665315950216911</v>
+        <v>0.03378190659706096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.540576000000001</v>
+        <v>5.789497666666667</v>
       </c>
       <c r="H13">
-        <v>13.621728</v>
+        <v>17.368493</v>
       </c>
       <c r="I13">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="J13">
-        <v>0.1688497018860685</v>
+        <v>0.1973699855023315</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>777.1596756860799</v>
+        <v>741.2830163100523</v>
       </c>
       <c r="R13">
-        <v>6994.437081174719</v>
+        <v>6671.547146790471</v>
       </c>
       <c r="S13">
-        <v>0.04940276305739343</v>
+        <v>0.07767242694005903</v>
       </c>
       <c r="T13">
-        <v>0.04940276305739343</v>
+        <v>0.07767242694005905</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H14">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I14">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J14">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N14">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q14">
-        <v>400.0626505377076</v>
+        <v>53.17086666355068</v>
       </c>
       <c r="R14">
-        <v>3600.563854839369</v>
+        <v>478.537799971956</v>
       </c>
       <c r="S14">
-        <v>0.02543132505579273</v>
+        <v>0.005571300252934524</v>
       </c>
       <c r="T14">
-        <v>0.02543132505579273</v>
+        <v>0.005571300252934523</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H15">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I15">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J15">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q15">
-        <v>195.8636062851885</v>
+        <v>253.2380028642602</v>
       </c>
       <c r="R15">
-        <v>1762.772456566696</v>
+        <v>2279.142025778342</v>
       </c>
       <c r="S15">
-        <v>0.01245072748316691</v>
+        <v>0.02653454867188488</v>
       </c>
       <c r="T15">
-        <v>0.01245072748316691</v>
+        <v>0.02653454867188488</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H16">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I16">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J16">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N16">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q16">
-        <v>96.54334213046401</v>
+        <v>120.4795118716069</v>
       </c>
       <c r="R16">
-        <v>868.8900791741761</v>
+        <v>1084.315606844462</v>
       </c>
       <c r="S16">
-        <v>0.006137101557449748</v>
+        <v>0.01262397205618329</v>
       </c>
       <c r="T16">
-        <v>0.006137101557449748</v>
+        <v>0.01262397205618329</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.673314666666667</v>
+        <v>2.163479333333334</v>
       </c>
       <c r="H17">
-        <v>5.019944000000001</v>
+        <v>6.490438</v>
       </c>
       <c r="I17">
-        <v>0.06222529534320157</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="J17">
-        <v>0.06222529534320156</v>
+        <v>0.0737552563693224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N17">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q17">
-        <v>286.4025805685067</v>
+        <v>277.0103000768912</v>
       </c>
       <c r="R17">
-        <v>2577.62322511656</v>
+        <v>2493.09270069202</v>
       </c>
       <c r="S17">
-        <v>0.01820614124679217</v>
+        <v>0.0290254353883197</v>
       </c>
       <c r="T17">
-        <v>0.01820614124679217</v>
+        <v>0.0290254353883197</v>
       </c>
     </row>
   </sheetData>
